--- a/backend/routes/route_chatbot/options.xlsx
+++ b/backend/routes/route_chatbot/options.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatbot\backend\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LuanVan-HK1_23-24\Ecommerce-shop-vn\backend\routes\route_chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D59D01-C47C-461F-A799-98FBA6236C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF81E0-5074-4AAB-A4D8-66DD208EA841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Questions</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>We currently have an intake of 240 students for this program</t>
+  </si>
+  <si>
+    <t>what are you looking for?</t>
+  </si>
+  <si>
+    <t>I'm a chatbot not have a face</t>
   </si>
 </sst>
 </file>
@@ -554,121 +560,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,10 +684,10 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -687,10 +695,10 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -698,10 +706,10 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -709,10 +717,10 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -720,10 +728,10 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -731,10 +739,10 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -742,32 +750,32 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -775,10 +783,10 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -841,25 +849,28 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -868,37 +879,50 @@
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
